--- a/spp_event_demo/tests/import_data/phone_survey.xlsx
+++ b/spp_event_demo/tests/import_data/phone_survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpaul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpaul\Michael\OpenSPP\openspp-registry\spp_event_demo\tests\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EDC1E4-AB30-414D-A522-7541548904D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EDE325-08B9-4BAA-815C-D131683E5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{54ACA00C-4226-4E2E-A7EA-9EC9AA5C0E19}"/>
+    <workbookView xWindow="3240" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{54ACA00C-4226-4E2E-A7EA-9EC9AA5C0E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +446,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
